--- a/pogoda.xlsx
+++ b/pogoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1131,6 +1131,44 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="B19" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D19" t="n">
+        <v>83</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>20</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>18.504</v>
+      </c>
+      <c r="I19" t="n">
+        <v>20</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>19:55:41 02-12-2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/pogoda.xlsx
+++ b/pogoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1169,6 +1169,462 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="B20" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D20" t="n">
+        <v>83</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>20</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>35.172</v>
+      </c>
+      <c r="I20" t="n">
+        <v>20</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>18:29:59 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B21" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D21" t="n">
+        <v>86</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>20</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>20</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>18:57:07 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B22" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D22" t="n">
+        <v>86</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>20</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>18:57:07 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B23" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D23" t="n">
+        <v>86</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>20</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>20</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>18:57:07 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B24" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D24" t="n">
+        <v>86</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>20</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>20</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>18:57:07 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B25" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D25" t="n">
+        <v>86</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>20</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>20</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>18:57:07 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B26" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D26" t="n">
+        <v>86</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>20</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>20</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>18:57:07 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B27" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D27" t="n">
+        <v>86</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>20</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>20</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>18:57:07 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B28" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D28" t="n">
+        <v>86</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>20</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>20</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>19:01:48 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B29" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D29" t="n">
+        <v>86</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>20</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>20</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>19:01:48 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B30" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D30" t="n">
+        <v>86</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>20</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>20</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>19:01:48 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B31" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D31" t="n">
+        <v>86</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>20</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="I31" t="n">
+        <v>20</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>19:01:48 08-12-2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
